--- a/Course II/БИС/Занятие 9/Деменчук Георгий ПИ19-4 Задание 9.xlsx
+++ b/Course II/БИС/Занятие 9/Деменчук Георгий ПИ19-4 Задание 9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Факультет ИТиАБД\ПИ19-4\Деменчук Георгий Максимович - 191770\БИС\Занятие 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\Projects\FA\Course II\БИС\Занятие 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ЗАДАНИЕ 1'!$A$27:$N$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t>Постановка задачи</t>
   </si>
@@ -321,14 +321,33 @@
   <si>
     <t>12345960912345678913</t>
   </si>
+  <si>
+    <t>СУММЕСЛИ</t>
+  </si>
+  <si>
+    <t>СУММЕСЛИМН</t>
+  </si>
+  <si>
+    <t>12345810912345678915</t>
+  </si>
+  <si>
+    <t>12345810912345678913</t>
+  </si>
+  <si>
+    <t>Код валюты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество вкладчиков </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -508,7 +527,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,6 +553,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,32 +591,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -882,18 +904,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
@@ -902,432 +924,432 @@
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" style="13" customWidth="1"/>
     <col min="14" max="14" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="19"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="19"/>
+      <c r="M11" s="14"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="20"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="19"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="19"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="19"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="14"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="19"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+    <row r="18" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="20"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="19"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+    <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="19"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="19"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+    <row r="23" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="19"/>
+      <c r="M23" s="14"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="27" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="27" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="9">
         <v>43831</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="9">
         <f ca="1">IF($B28&lt;&gt;"",TODAY(),"")</f>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F28">
         <f ca="1">IF($B28&lt;&gt;"",DATEDIF(C28,E28,"M"),"")</f>
         <v>10</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="10">
         <v>0.1</v>
       </c>
       <c r="H28">
@@ -1349,37 +1371,41 @@
         <f>IF($B28&lt;&gt;"",LOOKUP(J28,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="13">
         <f ca="1">IF($B28&lt;&gt;"",FV(G28/12,F28,,-H28),"")</f>
         <v>120.60469687850345</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="12">
         <f ca="1">IF($B28&lt;&gt;"",VLOOKUP(I28,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M28,"")</f>
         <v>8325.3422255230926</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f>IF($B28&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="9">
         <v>43832</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="14">
-        <f t="shared" ref="E29:E57" ca="1" si="0">IF($B29&lt;&gt;"",TODAY(),"")</f>
-        <v>44144</v>
+      <c r="E29" s="9">
+        <f t="shared" ref="E29:E56" ca="1" si="0">IF($B29&lt;&gt;"",TODAY(),"")</f>
+        <v>44151</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F58" ca="1" si="1">IF($B29&lt;&gt;"",DATEDIF(C29,E29,"M"),"")</f>
+        <f t="shared" ref="F29:F56" ca="1" si="1">IF($B29&lt;&gt;"",DATEDIF(C29,E29,"M"),"")</f>
         <v>10</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="10">
         <v>0.05</v>
       </c>
       <c r="H29">
@@ -1401,37 +1427,41 @@
         <f>IF($B29&lt;&gt;"",LOOKUP(J29,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="13">
         <f t="shared" ref="M29:M55" ca="1" si="4">IF($B29&lt;&gt;"",FV(G29/12,F29,,-H29),"")</f>
         <v>128.22216928276899</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="12">
         <f ca="1">IF($B29&lt;&gt;"",VLOOKUP(I29,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M29,"")</f>
         <v>8851.1763455895434</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f t="shared" ref="O29:O74" si="5">IF($B29&lt;&gt;"",1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="9">
         <v>43833</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="10">
         <v>0.05</v>
       </c>
       <c r="H30">
@@ -1453,37 +1483,41 @@
         <f>IF($B30&lt;&gt;"",LOOKUP(J30,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>569.18133681619395</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="12">
         <f ca="1">IF($B30&lt;&gt;"",VLOOKUP(I30,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M30,"")</f>
         <v>39290.587680421871</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="9">
         <v>43834</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="10">
         <v>0.15</v>
       </c>
       <c r="H31">
@@ -1505,37 +1539,41 @@
         <f>IF($B31&lt;&gt;"",LOOKUP(J31,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>61872.939487003336</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="12">
         <f ca="1">IF($B31&lt;&gt;"",VLOOKUP(I31,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M31,"")</f>
         <v>4271089.0127878403</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="9">
         <v>43835</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="D32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="10">
         <v>0.1</v>
       </c>
       <c r="H32">
@@ -1543,51 +1581,55 @@
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="K32" t="str">
         <f>IF($B32&lt;&gt;"",VLOOKUP(I32,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,3,0),"")</f>
-        <v>Доллар США</v>
+        <v>Российский рубль</v>
       </c>
       <c r="L32" t="str">
         <f>IF($B32&lt;&gt;"",LOOKUP(J32,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
-        <v>Доллар США</v>
-      </c>
-      <c r="M32" s="18">
+        <v>Российский рубль</v>
+      </c>
+      <c r="M32" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>71358.865515248574</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="12">
         <f ca="1">IF($B32&lt;&gt;"",VLOOKUP(I32,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M32,"")</f>
-        <v>4925902.4865176091</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>71358.865515248574</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="9">
         <v>43836</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="14">
+      <c r="D33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="10">
         <v>0.05</v>
       </c>
       <c r="H33">
@@ -1595,51 +1637,55 @@
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="K33" t="str">
         <f>IF($B33&lt;&gt;"",VLOOKUP(I33,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,3,0),"")</f>
-        <v>Доллар США</v>
+        <v>Российский рубль</v>
       </c>
       <c r="L33" t="str">
         <f>IF($B33&lt;&gt;"",LOOKUP(J33,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
-        <v>Доллар США</v>
-      </c>
-      <c r="M33" s="18">
+        <v>Российский рубль</v>
+      </c>
+      <c r="M33" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>10424.566608355201</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="12">
         <f ca="1">IF($B33&lt;&gt;"",VLOOKUP(I33,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M33,"")</f>
-        <v>719607.83297475951</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10424.566608355201</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="9">
         <v>43837</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="10">
         <v>0.05</v>
       </c>
       <c r="H34">
@@ -1661,37 +1707,41 @@
         <f>IF($B34&lt;&gt;"",LOOKUP(J34,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>5885.7103070773464</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="12">
         <f ca="1">IF($B34&lt;&gt;"",VLOOKUP(I34,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M34,"")</f>
         <v>406290.58249754924</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="9">
         <v>43838</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="10">
         <v>0.15</v>
       </c>
       <c r="H35">
@@ -1713,37 +1763,41 @@
         <f>IF($B35&lt;&gt;"",LOOKUP(J35,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>СДР (специальные права заимствования)</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>64025.386334195086</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="12">
         <f ca="1">IF($B35&lt;&gt;"",VLOOKUP(I35,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M35,"")</f>
         <v>3173738.4005860505</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="9">
         <v>43839</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="10">
         <v>0.1</v>
       </c>
       <c r="H36">
@@ -1765,37 +1819,41 @@
         <f>IF($B36&lt;&gt;"",LOOKUP(J36,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M36" s="18">
+      <c r="M36" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>59169.09890011407</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="12">
         <f ca="1">IF($B36&lt;&gt;"",VLOOKUP(I36,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M36,"")</f>
         <v>4084442.8970748745</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="9">
         <v>43840</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G37" s="15">
+        <v>10</v>
+      </c>
+      <c r="G37" s="10">
         <v>0.05</v>
       </c>
       <c r="H37">
@@ -1817,37 +1875,41 @@
         <f>IF($B37&lt;&gt;"",LOOKUP(J37,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>451945.1900528858</v>
-      </c>
-      <c r="N37" s="17">
+        <v>453828.29501143954</v>
+      </c>
+      <c r="N37" s="12">
         <f ca="1">IF($B37&lt;&gt;"",VLOOKUP(I37,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M37,"")</f>
-        <v>31197776.469350707</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>31327767.204639673</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="9">
         <v>43841</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G38" s="15">
+        <v>10</v>
+      </c>
+      <c r="G38" s="10">
         <v>0.05</v>
       </c>
       <c r="H38">
@@ -1869,37 +1931,41 @@
         <f>IF($B38&lt;&gt;"",LOOKUP(J38,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>6797212.2645148151</v>
-      </c>
-      <c r="N38" s="17">
+        <v>6825533.9822836276</v>
+      </c>
+      <c r="N38" s="12">
         <f ca="1">IF($B38&lt;&gt;"",VLOOKUP(I38,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M38,"")</f>
-        <v>469211562.61945766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>471166610.79703879</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="9">
         <v>43842</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G39" s="15">
+        <v>10</v>
+      </c>
+      <c r="G39" s="10">
         <v>0.15</v>
       </c>
       <c r="H39">
@@ -1921,37 +1987,41 @@
         <f>IF($B39&lt;&gt;"",LOOKUP(J39,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>510452.29244055093</v>
-      </c>
-      <c r="N39" s="17">
+        <v>516832.94609605783</v>
+      </c>
+      <c r="N39" s="12">
         <f ca="1">IF($B39&lt;&gt;"",VLOOKUP(I39,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M39,"")</f>
-        <v>35236521.747171231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35676978.269010872</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="9">
         <v>43843</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G40" s="15">
+        <v>10</v>
+      </c>
+      <c r="G40" s="10">
         <v>0.1</v>
       </c>
       <c r="H40">
@@ -1973,37 +2043,41 @@
         <f>IF($B40&lt;&gt;"",LOOKUP(J40,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>58579307.361007258</v>
-      </c>
-      <c r="N40" s="17">
+        <v>59067468.255682319</v>
+      </c>
+      <c r="N40" s="12">
         <f ca="1">IF($B40&lt;&gt;"",VLOOKUP(I40,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M40,"")</f>
-        <v>4043729587.130331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4077427333.6897507</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="9">
         <v>43844</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G41" s="15">
+        <v>10</v>
+      </c>
+      <c r="G41" s="10">
         <v>0.05</v>
       </c>
       <c r="H41">
@@ -2025,37 +2099,41 @@
         <f>IF($B41&lt;&gt;"",LOOKUP(J41,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>568425.57736481971</v>
-      </c>
-      <c r="N41" s="17">
+        <v>570794.01727050659</v>
+      </c>
+      <c r="N41" s="12">
         <f ca="1">IF($B41&lt;&gt;"",VLOOKUP(I41,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M41,"")</f>
-        <v>39238417.605493508</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39401911.01218307</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="9">
         <v>43845</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G42" s="15">
+        <v>10</v>
+      </c>
+      <c r="G42" s="10">
         <v>0.05</v>
       </c>
       <c r="H42">
@@ -2077,37 +2155,41 @@
         <f>IF($B42&lt;&gt;"",LOOKUP(J42,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>5662771.650233102</v>
-      </c>
-      <c r="N42" s="17">
+        <v>5686366.5321090743</v>
+      </c>
+      <c r="N42" s="12">
         <f ca="1">IF($B42&lt;&gt;"",VLOOKUP(I42,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M42,"")</f>
-        <v>390901127.01559103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>392529881.71148938</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="9">
         <v>43846</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G43" s="15">
+        <v>10</v>
+      </c>
+      <c r="G43" s="10">
         <v>0.1</v>
       </c>
       <c r="H43">
@@ -2129,37 +2211,41 @@
         <f>IF($B43&lt;&gt;"",LOOKUP(J43,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>96979.43014577002</v>
-      </c>
-      <c r="N43" s="17">
+        <v>97787.592063651435</v>
+      </c>
+      <c r="N43" s="12">
         <f ca="1">IF($B43&lt;&gt;"",VLOOKUP(I43,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M43,"")</f>
-        <v>6694490.062962505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6750277.4801538587</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="9">
         <v>43847</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="10">
         <v>0.05</v>
       </c>
       <c r="H44">
@@ -2181,37 +2267,41 @@
         <f>IF($B44&lt;&gt;"",LOOKUP(J44,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>568426145.22253942</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="12">
         <f ca="1">IF($B44&lt;&gt;"",VLOOKUP(I44,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M44,"")</f>
         <v>39238456804.711899</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="9">
         <v>43848</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="10">
         <v>0.05</v>
       </c>
       <c r="H45">
@@ -2233,37 +2323,41 @@
         <f>IF($B45&lt;&gt;"",LOOKUP(J45,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>56842613.795562156</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="12">
         <f ca="1">IF($B45&lt;&gt;"",VLOOKUP(I45,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M45,"")</f>
         <v>3923845630.3076558</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="9">
         <v>43849</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="10">
         <v>0.15</v>
       </c>
       <c r="H46">
@@ -2285,17 +2379,21 @@
         <f>IF($B46&lt;&gt;"",LOOKUP(J46,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v>Доллар США</v>
       </c>
-      <c r="M46" s="18">
+      <c r="M46" s="13">
         <f t="shared" ca="1" si="4"/>
         <v>61231805.248144679</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="12">
         <f ca="1">IF($B46&lt;&gt;"",VLOOKUP(I46,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M46,"")</f>
         <v>4226831516.2794271</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E47" s="14" t="str">
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E47" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2315,17 +2413,21 @@
         <f>IF($B47&lt;&gt;"",LOOKUP(J47,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M47" s="18" t="str">
+      <c r="M47" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N47" s="17" t="str">
+      <c r="N47" s="12" t="str">
         <f>IF($B47&lt;&gt;"",VLOOKUP(I47,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M47,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E48" s="14" t="str">
+      <c r="O47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E48" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2345,17 +2447,21 @@
         <f>IF($B48&lt;&gt;"",LOOKUP(J48,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M48" s="18" t="str">
+      <c r="M48" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N48" s="17" t="str">
+      <c r="N48" s="12" t="str">
         <f>IF($B48&lt;&gt;"",VLOOKUP(I48,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M48,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E49" s="14" t="str">
+      <c r="O48" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E49" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2375,17 +2481,21 @@
         <f>IF($B49&lt;&gt;"",LOOKUP(J49,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M49" s="18" t="str">
+      <c r="M49" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N49" s="17" t="str">
+      <c r="N49" s="12" t="str">
         <f>IF($B49&lt;&gt;"",VLOOKUP(I49,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M49,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E50" s="14" t="str">
+      <c r="O49" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E50" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2405,17 +2515,21 @@
         <f>IF($B50&lt;&gt;"",LOOKUP(J50,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M50" s="18" t="str">
+      <c r="M50" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N50" s="17" t="str">
+      <c r="N50" s="12" t="str">
         <f>IF($B50&lt;&gt;"",VLOOKUP(I50,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M50,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E51" s="14" t="str">
+      <c r="O50" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E51" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2435,17 +2549,21 @@
         <f>IF($B51&lt;&gt;"",LOOKUP(J51,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M51" s="18" t="str">
+      <c r="M51" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N51" s="17" t="str">
+      <c r="N51" s="12" t="str">
         <f>IF($B51&lt;&gt;"",VLOOKUP(I51,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M51,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E52" s="14" t="str">
+      <c r="O51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E52" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2465,17 +2583,21 @@
         <f>IF($B52&lt;&gt;"",LOOKUP(J52,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M52" s="18" t="str">
+      <c r="M52" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N52" s="17" t="str">
+      <c r="N52" s="12" t="str">
         <f>IF($B52&lt;&gt;"",VLOOKUP(I52,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M52,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E53" s="14" t="str">
+      <c r="O52" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E53" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2495,17 +2617,21 @@
         <f>IF($B53&lt;&gt;"",LOOKUP(J53,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M53" s="18" t="str">
+      <c r="M53" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N53" s="17" t="str">
+      <c r="N53" s="12" t="str">
         <f>IF($B53&lt;&gt;"",VLOOKUP(I53,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M53,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E54" s="14" t="str">
+      <c r="O53" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E54" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2525,17 +2651,21 @@
         <f>IF($B54&lt;&gt;"",LOOKUP(J54,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M54" s="18" t="str">
+      <c r="M54" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N54" s="17" t="str">
+      <c r="N54" s="12" t="str">
         <f>IF($B54&lt;&gt;"",VLOOKUP(I54,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M54,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E55" s="14" t="str">
+      <c r="O54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E55" s="9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2551,296 +2681,345 @@
         <f>IF($B55&lt;&gt;"",LOOKUP(J55,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
         <v/>
       </c>
-      <c r="M55" s="18" t="str">
+      <c r="M55" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N55" s="17" t="str">
+      <c r="N55" s="12" t="str">
         <f>IF($B55&lt;&gt;"",VLOOKUP(I55,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M55,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E56" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K56" t="str">
-        <f>IF($B56&lt;&gt;"",VLOOKUP(I56,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <f>IF($B56&lt;&gt;"",LOOKUP(J56,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
-        <v/>
-      </c>
-      <c r="N56" s="17" t="str">
-        <f>IF($B56&lt;&gt;"",VLOOKUP(I56,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,4,0)*M56,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E57" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K57" t="str">
-        <f>IF($B57&lt;&gt;"",VLOOKUP(I57,'ИНФОРМАЦИОННЫЙ СПРАВОЧНИК'!$A$3:$D$16,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <f>IF($B57&lt;&gt;"",LOOKUP(J57,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$A$1:$A$14,'ИНОФРМАЦИОННЫЙ СПРАВОЧНИК СОРТ'!$C$1:$C$14),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E58" s="14" t="str">
-        <f t="shared" ref="E29:E92" ca="1" si="5">IF($B58&lt;&gt;"",TODAY(),"")</f>
-        <v/>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E59" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E60" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E61" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E62" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E63" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E64" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="O55" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="28">
+        <v>810</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="27">
+        <f ca="1">SUMIF(I28:I46,$B$56,N28:N46)</f>
+        <v>81783.432123603779</v>
+      </c>
+      <c r="D57"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="28">
+        <f ca="1">SUMIFS(N28:N46,I28:I46,$B$56,F28:F46,"&gt;6")</f>
+        <v>81783.432123603779</v>
+      </c>
+      <c r="D58"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="28">
+        <f ca="1">SUMIFS(O28:O46,I28:I46,$B$56,F28:F46,"&gt;6")</f>
+        <v>2</v>
+      </c>
+      <c r="D59"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D60"/>
+      <c r="M60"/>
+      <c r="O60" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E61" s="9" t="str">
+        <f t="shared" ref="E61:E92" ca="1" si="6">IF($B61&lt;&gt;"",TODAY(),"")</f>
+        <v/>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E62" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E63" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E64" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E65" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E66" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E67" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E68" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E69" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E70" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E71" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E72" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E73" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E74" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E75" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E76" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E77" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E78" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E79" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E80" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E81" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E82" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E83" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E84" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E85" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E86" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E87" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E88" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E89" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E90" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E91" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E92" s="9" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="14" t="str">
-        <f t="shared" ref="E93:E97" ca="1" si="6">IF($B93&lt;&gt;"",TODAY(),"")</f>
+      <c r="E93" s="9" t="str">
+        <f t="shared" ref="E93:E97" ca="1" si="7">IF($B93&lt;&gt;"",TODAY(),"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E94" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E95" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E96" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="E97" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
     </row>
